--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_0</t>
+          <t>model_6_7_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9766009060052466</v>
+        <v>0.9752917075407588</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7462901105789512</v>
+        <v>0.7246536653487103</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9353825991642186</v>
+        <v>0.948945076093665</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9899892231841706</v>
+        <v>0.8538738195615804</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9492008551420361</v>
+        <v>0.8680548526774198</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1564698492858368</v>
+        <v>0.1652244654461715</v>
       </c>
       <c r="H2" t="n">
-        <v>1.696559198785176</v>
+        <v>1.841242207666466</v>
       </c>
       <c r="I2" t="n">
-        <v>0.717638172042809</v>
+        <v>0.02783350993291666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03150168403026984</v>
+        <v>0.5272751997250084</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3745698871573808</v>
+        <v>0.2775543695028824</v>
       </c>
       <c r="L2" t="n">
-        <v>1.083738223086666</v>
+        <v>0.5434189937276195</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3955626995633396</v>
+        <v>0.4064781241914151</v>
       </c>
       <c r="N2" t="n">
-        <v>1.013697030631075</v>
+        <v>1.014463390707848</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4124026226114222</v>
+        <v>0.4237827394639589</v>
       </c>
       <c r="P2" t="n">
-        <v>133.7097838877662</v>
+        <v>133.6009006658785</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.9367125041992</v>
+        <v>212.8278292823115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_1</t>
+          <t>model_6_7_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9770562855026174</v>
+        <v>0.9765066184728887</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7427032325623122</v>
+        <v>0.7243374436145726</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9338817577868861</v>
+        <v>0.9731826209603576</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9874257382863523</v>
+        <v>0.8954792005743888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9475235681416682</v>
+        <v>0.9068796694293968</v>
       </c>
       <c r="G3" t="n">
-        <v>0.153424724490089</v>
+        <v>0.1571003504488686</v>
       </c>
       <c r="H3" t="n">
-        <v>1.720544668598495</v>
+        <v>1.843356783858712</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7343064540941457</v>
+        <v>0.014619976463858</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0395683998059877</v>
+        <v>0.3771481963547362</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3869374418517563</v>
+        <v>0.1958840864092971</v>
       </c>
       <c r="L3" t="n">
-        <v>1.126478614743328</v>
+        <v>0.4904464255460341</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3916946827442121</v>
+        <v>0.3963588657376905</v>
       </c>
       <c r="N3" t="n">
-        <v>1.013430467022858</v>
+        <v>1.013752223332943</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4083699363084059</v>
+        <v>0.4132326832281065</v>
       </c>
       <c r="P3" t="n">
-        <v>133.7490904528777</v>
+        <v>133.701741005971</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.9760190693107</v>
+        <v>212.928669622404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_2</t>
+          <t>model_6_7_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9773504049903989</v>
+        <v>0.9734355594104568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7393529564161361</v>
+        <v>0.7243273962924675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9325375517205822</v>
+        <v>0.9209923948486479</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9848346400322756</v>
+        <v>0.8113623075595044</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9459583597330301</v>
+        <v>0.827971485784543</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1514579461209978</v>
+        <v>0.1776365365402774</v>
       </c>
       <c r="H4" t="n">
-        <v>1.742947980614578</v>
+        <v>1.843423970347893</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7492351508816073</v>
+        <v>0.0430724168111678</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0477220086610211</v>
+        <v>0.6806718457897627</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3984785797713142</v>
+        <v>0.3618720867608417</v>
       </c>
       <c r="L4" t="n">
-        <v>1.164226024672924</v>
+        <v>0.5905831860487782</v>
       </c>
       <c r="M4" t="n">
-        <v>0.389175983484333</v>
+        <v>0.4214694965715519</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013258299517815</v>
+        <v>1.015549916442659</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4057440108066074</v>
+        <v>0.4394123256027371</v>
       </c>
       <c r="P4" t="n">
-        <v>133.7748945518517</v>
+        <v>133.456031491639</v>
       </c>
       <c r="Q4" t="n">
-        <v>213.0018231682847</v>
+        <v>212.682960108072</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_3</t>
+          <t>model_6_7_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9775226930932503</v>
+        <v>0.9711780292772547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7362414938614736</v>
+        <v>0.7235637272775984</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9313396871246855</v>
+        <v>0.8915103957559642</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9822632306574275</v>
+        <v>0.7692522321060755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9445075547758828</v>
+        <v>0.7880342094104624</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1503058547839164</v>
+        <v>0.1927326509359699</v>
       </c>
       <c r="H5" t="n">
-        <v>1.763754345044573</v>
+        <v>1.848530628566694</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7625385853719356</v>
+        <v>0.05914505881713562</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05581366100021357</v>
+        <v>0.8326199660959585</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4091761584531105</v>
+        <v>0.4458824940293273</v>
       </c>
       <c r="L5" t="n">
-        <v>1.197472112487458</v>
+        <v>0.6328082204087281</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3876929903724292</v>
+        <v>0.4390132696581846</v>
       </c>
       <c r="N5" t="n">
-        <v>1.013157447945414</v>
+        <v>1.016871397496241</v>
       </c>
       <c r="O5" t="n">
-        <v>0.404197883607711</v>
+        <v>0.4577029734302846</v>
       </c>
       <c r="P5" t="n">
-        <v>133.7901660579942</v>
+        <v>133.2929025574079</v>
       </c>
       <c r="Q5" t="n">
-        <v>213.0170946744272</v>
+        <v>212.519831173841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_4</t>
+          <t>model_6_7_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9776038588153037</v>
+        <v>0.9767479205150827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7333650641817406</v>
+        <v>0.7230957679421415</v>
       </c>
       <c r="D6" t="n">
-        <v>0.930276338230236</v>
+        <v>0.9903394778073858</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9797470249703449</v>
+        <v>0.9342468739105714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9431698453726025</v>
+        <v>0.942353110272888</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1497630992268123</v>
+        <v>0.1554867625816229</v>
       </c>
       <c r="H6" t="n">
-        <v>1.782989043557689</v>
+        <v>1.85165987479765</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7743480940644278</v>
+        <v>0.005266607406928741</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06373159963453655</v>
+        <v>0.2372606509478821</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4190398217418738</v>
+        <v>0.1212636194409902</v>
       </c>
       <c r="L6" t="n">
-        <v>1.226723157760112</v>
+        <v>0.4305026747201897</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3869923761869377</v>
+        <v>0.3943180982171918</v>
       </c>
       <c r="N6" t="n">
-        <v>1.013109936303237</v>
+        <v>1.013610973357025</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4034674428258719</v>
+        <v>0.411105036009289</v>
       </c>
       <c r="P6" t="n">
-        <v>133.797401143687</v>
+        <v>133.7223893581578</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.0243297601201</v>
+        <v>212.9493179745909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_5</t>
+          <t>model_6_7_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9776176555674315</v>
+        <v>0.9686911897280649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7307159889434021</v>
+        <v>0.7225112363437515</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9293345941029136</v>
+        <v>0.8618912656517836</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9773130946526427</v>
+        <v>0.7284041911617821</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9419412610899254</v>
+        <v>0.7491615808983948</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1496708402818053</v>
+        <v>0.2093621584522457</v>
       </c>
       <c r="H7" t="n">
-        <v>1.800703421874329</v>
+        <v>1.855568640287604</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7848070652598375</v>
+        <v>0.07529246026016799</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07139063601408235</v>
+        <v>0.9800142173017116</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4280988458142755</v>
+        <v>0.5276533519693244</v>
       </c>
       <c r="L7" t="n">
-        <v>1.252450766054335</v>
+        <v>0.6707668341142957</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3868731578719378</v>
+        <v>0.4575610980538509</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01310186015565</v>
+        <v>1.018327108451864</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4033431491403864</v>
+        <v>0.4770404212800523</v>
       </c>
       <c r="P7" t="n">
-        <v>133.7986335884537</v>
+        <v>133.1273794220983</v>
       </c>
       <c r="Q7" t="n">
-        <v>213.0255622048867</v>
+        <v>212.3543080385313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_6</t>
+          <t>model_6_7_8</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.977582443170221</v>
+        <v>0.9660979568051049</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7282838682370485</v>
+        <v>0.7212778387807768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9285015450924649</v>
+        <v>0.83299957073173</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9749805919369624</v>
+        <v>0.6893657773259398</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9408161729315179</v>
+        <v>0.7119353072231234</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1499063057440895</v>
+        <v>0.2267031189488182</v>
       </c>
       <c r="H8" t="n">
-        <v>1.816967024236602</v>
+        <v>1.86381637547049</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7940588729981263</v>
+        <v>0.09104328733046999</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07873050233024288</v>
+        <v>1.120878690666331</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4363947363398959</v>
+        <v>0.6059610057826261</v>
       </c>
       <c r="L8" t="n">
-        <v>1.275086800889974</v>
+        <v>0.7049807220529393</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3871773569620123</v>
+        <v>0.4761335095840433</v>
       </c>
       <c r="N8" t="n">
-        <v>1.013122472290602</v>
+        <v>1.019845098455548</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4036602986155044</v>
+        <v>0.4964034988192768</v>
       </c>
       <c r="P8" t="n">
-        <v>133.7954896168404</v>
+        <v>132.9682279270365</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.0224182332734</v>
+        <v>212.1951565434695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_7</t>
+          <t>model_6_7_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9775124322968897</v>
+        <v>0.975558662513564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7260568266684866</v>
+        <v>0.7205385111912771</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9277652961239395</v>
+        <v>0.9953472833918305</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9727628466920154</v>
+        <v>0.9673912809823521</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9397884943364941</v>
+        <v>0.9714292835872305</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1503744687764274</v>
+        <v>0.1634393363138079</v>
       </c>
       <c r="H9" t="n">
-        <v>1.831859261460159</v>
+        <v>1.868760262465764</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8022356234880399</v>
+        <v>0.00253651213281824</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08570925245635561</v>
+        <v>0.117663849018847</v>
       </c>
       <c r="K9" t="n">
-        <v>0.443972372862093</v>
+        <v>0.06010018057583262</v>
       </c>
       <c r="L9" t="n">
-        <v>1.295026745652185</v>
+        <v>0.3859701167365215</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3877814703881909</v>
+        <v>0.4042763118385839</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013163454265235</v>
+        <v>1.014307124382304</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4042901304009226</v>
+        <v>0.4214871914008878</v>
       </c>
       <c r="P9" t="n">
-        <v>133.7892532747047</v>
+        <v>133.6226267784279</v>
       </c>
       <c r="Q9" t="n">
-        <v>213.0161818911378</v>
+        <v>212.849555394861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_8</t>
+          <t>model_6_7_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.977418545039516</v>
+        <v>0.9634853272223664</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7240221002894016</v>
+        <v>0.7199421572686695</v>
       </c>
       <c r="D10" t="n">
-        <v>0.927114534370285</v>
+        <v>0.8053515017196479</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9706685984899177</v>
+        <v>0.6524642235365807</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9388515294712472</v>
+        <v>0.6767029378659342</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1510022932987957</v>
+        <v>0.2441737849986442</v>
       </c>
       <c r="H10" t="n">
-        <v>1.845465486126152</v>
+        <v>1.872748083892198</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8094629565173406</v>
+        <v>0.1061161293718282</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09229938490632936</v>
+        <v>1.254032613434107</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4508811274253296</v>
+        <v>0.6800743647159396</v>
       </c>
       <c r="L10" t="n">
-        <v>1.312599072855729</v>
+        <v>0.7358863108756615</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3885901353596045</v>
+        <v>0.4941394388213151</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013218412659796</v>
+        <v>1.021374442601542</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4051332219143365</v>
+        <v>0.5151759777415913</v>
       </c>
       <c r="P10" t="n">
-        <v>133.7809205097466</v>
+        <v>132.8197501472118</v>
       </c>
       <c r="Q10" t="n">
-        <v>213.0078491261797</v>
+        <v>212.0466787636449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_9</t>
+          <t>model_6_7_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9773092080763468</v>
+        <v>0.960914239124591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7221665439079591</v>
+        <v>0.7185611529547886</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9265395135231985</v>
+        <v>0.7792437079849853</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9687020633520161</v>
+        <v>0.6178736559904521</v>
       </c>
       <c r="F11" t="n">
-        <v>0.937998853549884</v>
+        <v>0.6436522304775614</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1517334300749585</v>
+        <v>0.2613666629472406</v>
       </c>
       <c r="H11" t="n">
-        <v>1.857873600192911</v>
+        <v>1.88198286609806</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8158491141815644</v>
+        <v>0.1203492626455829</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09848763280040304</v>
+        <v>1.378847676393838</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4571683734909837</v>
+        <v>0.7495984695197104</v>
       </c>
       <c r="L11" t="n">
-        <v>1.328108714505305</v>
+        <v>0.7638340168435611</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3895297550572466</v>
+        <v>0.5112403181941352</v>
       </c>
       <c r="N11" t="n">
-        <v>1.013282414784578</v>
+        <v>1.022879469780727</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4061128431677882</v>
+        <v>0.5330048769530128</v>
       </c>
       <c r="P11" t="n">
-        <v>133.7712600945234</v>
+        <v>132.6836620372881</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.9981887109565</v>
+        <v>211.9105906537212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_10</t>
+          <t>model_6_7_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9771906570172995</v>
+        <v>0.9584263806113861</v>
       </c>
       <c r="C12" t="n">
-        <v>0.720477141595938</v>
+        <v>0.7171757463028512</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9260308587778676</v>
+        <v>0.7548207349570683</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9668644828568597</v>
+        <v>0.5856611625736491</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9372236801694704</v>
+        <v>0.6128594611387653</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1525261815526857</v>
+        <v>0.2780029842805767</v>
       </c>
       <c r="H12" t="n">
-        <v>1.869170641232378</v>
+        <v>1.891247086758777</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8214982126739019</v>
+        <v>0.13366388561145</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1042700891675327</v>
+        <v>1.495081802606033</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4628841509207173</v>
+        <v>0.8143728689766476</v>
       </c>
       <c r="L12" t="n">
-        <v>1.341814578523876</v>
+        <v>0.7891182114728327</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3905460043998475</v>
+        <v>0.5272598830563319</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013351810526459</v>
+        <v>1.024335777203091</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4071723563488297</v>
+        <v>0.549706427856464</v>
       </c>
       <c r="P12" t="n">
-        <v>133.7608380307154</v>
+        <v>132.5602468610538</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.9877666471484</v>
+        <v>211.7871754774868</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_7_11</t>
+          <t>model_6_7_0</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9770677638822819</v>
+        <v>0.9723201322067542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7189411140190132</v>
+        <v>0.716134000158777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9255808643370224</v>
+        <v>0.9807579125166213</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9651546915417494</v>
+        <v>0.9910213562028092</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9365199551704381</v>
+        <v>0.9898057655694714</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1533479685124188</v>
+        <v>0.1850954033875067</v>
       </c>
       <c r="H13" t="n">
-        <v>1.879442064712031</v>
+        <v>1.898213248021001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8264958322590399</v>
+        <v>0.01049017003886316</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1096504214591422</v>
+        <v>0.03239813828856336</v>
       </c>
       <c r="K13" t="n">
-        <v>0.468073100345248</v>
+        <v>0.0214441710615735</v>
       </c>
       <c r="L13" t="n">
-        <v>1.353945718967278</v>
+        <v>0.3853357607048525</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3915966911407945</v>
+        <v>0.4302271532429197</v>
       </c>
       <c r="N13" t="n">
-        <v>1.013423747971347</v>
+        <v>1.016202849439949</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4082677729995602</v>
+        <v>0.4485428138494535</v>
       </c>
       <c r="P13" t="n">
-        <v>133.7500912718035</v>
+        <v>133.3737677856835</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.9770198882365</v>
+        <v>212.6006964021165</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9769440380501091</v>
+        <v>0.956049215454843</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7175462690138621</v>
+        <v>0.7158151457614074</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9251823157240971</v>
+        <v>0.7321336191716948</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9635699697241099</v>
+        <v>0.5558182382214665</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9358816542476408</v>
+        <v>0.584323977725852</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1541753237218638</v>
+        <v>0.2938990986282195</v>
       </c>
       <c r="H14" t="n">
-        <v>1.888769399684147</v>
+        <v>1.900345428844401</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8309220966143132</v>
+        <v>0.1460321747841045</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1146371879102947</v>
+        <v>1.602765681367284</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472779642262304</v>
+        <v>0.8743989348672553</v>
       </c>
       <c r="L14" t="n">
-        <v>1.364692865355901</v>
+        <v>0.8120057573097399</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3926516569707351</v>
+        <v>0.5421246154051848</v>
       </c>
       <c r="N14" t="n">
-        <v>1.013496172848717</v>
+        <v>1.025727288514238</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4093676509089617</v>
+        <v>0.5652039826356455</v>
       </c>
       <c r="P14" t="n">
-        <v>133.7393297168056</v>
+        <v>132.4490375449911</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.9662583332386</v>
+        <v>211.6759661614242</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9768220460977352</v>
+        <v>0.9537997265389558</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7162808884210627</v>
+        <v>0.7144994657466262</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9248289492997921</v>
+        <v>0.7111675960691275</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9621056888785063</v>
+        <v>0.5282871003275327</v>
       </c>
       <c r="F15" t="n">
-        <v>0.935303097489367</v>
+        <v>0.5579942569680922</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1549910844691095</v>
+        <v>0.308941441366701</v>
       </c>
       <c r="H15" t="n">
-        <v>1.897231005534738</v>
+        <v>1.909143387161393</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8348465694578441</v>
+        <v>0.1574621793288113</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1192449534592024</v>
+        <v>1.702107812860266</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4770456577684052</v>
+        <v>0.9297850494186337</v>
       </c>
       <c r="L15" t="n">
-        <v>1.374230878193748</v>
+        <v>0.83271801384647</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3936890708022125</v>
+        <v>0.5558250096628443</v>
       </c>
       <c r="N15" t="n">
-        <v>1.013567582772057</v>
+        <v>1.027044062513782</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4104492295949878</v>
+        <v>0.5794876310405795</v>
       </c>
       <c r="P15" t="n">
-        <v>133.7287753665427</v>
+        <v>132.3492070603677</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.9557039829757</v>
+        <v>211.5761356768007</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9767036971930761</v>
+        <v>0.951687416742535</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7151340161275792</v>
+        <v>0.7132421827493017</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9245155440048618</v>
+        <v>0.6918735536959701</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9607566995037574</v>
+        <v>0.5029763624607724</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9347792229262547</v>
+        <v>0.5337856458481016</v>
       </c>
       <c r="G16" t="n">
-        <v>0.155782484139511</v>
+        <v>0.3230664667016594</v>
       </c>
       <c r="H16" t="n">
-        <v>1.904900145842124</v>
+        <v>1.917550844353757</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8383272356569372</v>
+        <v>0.1679806735101875</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1234899224386662</v>
+        <v>1.793437951811701</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4809084715330515</v>
+        <v>0.9807092852264299</v>
       </c>
       <c r="L16" t="n">
-        <v>1.382701445986154</v>
+        <v>0.8514642541427535</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3946928985166962</v>
+        <v>0.5683893618829081</v>
       </c>
       <c r="N16" t="n">
-        <v>1.013636860179663</v>
+        <v>1.028280536540955</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4114957923334869</v>
+        <v>0.592586873746446</v>
       </c>
       <c r="P16" t="n">
-        <v>133.7185891543153</v>
+        <v>132.259794395334</v>
       </c>
       <c r="Q16" t="n">
-        <v>212.9455177707484</v>
+        <v>211.4867230117671</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9765903045378447</v>
+        <v>0.9497160345575623</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7140953148906595</v>
+        <v>0.7120518973227404</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9242373658274491</v>
+        <v>0.6741755473943865</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9595173974029155</v>
+        <v>0.4797725221835002</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9343052680033801</v>
+        <v>0.511590791373346</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1565407413471687</v>
+        <v>0.3362491084499522</v>
       </c>
       <c r="H17" t="n">
-        <v>1.911845945796185</v>
+        <v>1.925510288481933</v>
       </c>
       <c r="I17" t="n">
-        <v>0.841416670950814</v>
+        <v>0.1776290599242318</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1273897300077489</v>
+        <v>1.877165655361318</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4844032004792814</v>
+        <v>1.027397465617698</v>
       </c>
       <c r="L17" t="n">
-        <v>1.390229605414405</v>
+        <v>0.8684249186657802</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3956522985490779</v>
+        <v>0.5798699064876123</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013703236368091</v>
+        <v>1.029434516356549</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4124960360114789</v>
+        <v>0.604556168902976</v>
       </c>
       <c r="P17" t="n">
-        <v>133.708877949569</v>
+        <v>132.1798059990391</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.935806566002</v>
+        <v>211.4067346154722</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.976482571488635</v>
+        <v>0.947885620091853</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7131553464475091</v>
+        <v>0.7109332866507414</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9239899650930967</v>
+        <v>0.6579823982668715</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9583809004011198</v>
+        <v>0.4585534859359386</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9338764577884857</v>
+        <v>0.4912933797797608</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1572611527432986</v>
+        <v>0.3484890984104341</v>
       </c>
       <c r="H18" t="n">
-        <v>1.918131519103689</v>
+        <v>1.932990443196319</v>
       </c>
       <c r="I18" t="n">
-        <v>0.844164293239334</v>
+        <v>0.1864570463866691</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1309660328372464</v>
+        <v>1.953731480471078</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4875650527949848</v>
+        <v>1.070094263428873</v>
       </c>
       <c r="L18" t="n">
-        <v>1.396937116882678</v>
+        <v>0.883774939371385</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3965616632294385</v>
+        <v>0.5903296523218481</v>
       </c>
       <c r="N18" t="n">
-        <v>1.013766299616409</v>
+        <v>1.030505978482818</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4134441142289269</v>
+        <v>0.6154612077720342</v>
       </c>
       <c r="P18" t="n">
-        <v>133.6996949245415</v>
+        <v>132.108296661466</v>
       </c>
       <c r="Q18" t="n">
-        <v>212.9266235409746</v>
+        <v>211.335225277899</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9763811181822416</v>
+        <v>0.9461931645929774</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7123052459845225</v>
+        <v>0.7098883915360141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9237699848032686</v>
+        <v>0.6432010607038934</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9573411752276939</v>
+        <v>0.4391880496720066</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9334889173124774</v>
+        <v>0.472768638961661</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1579395714703015</v>
+        <v>0.3598065561244558</v>
       </c>
       <c r="H19" t="n">
-        <v>1.923816144814033</v>
+        <v>1.9399776616398</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8466073852089251</v>
+        <v>0.1945153583848561</v>
       </c>
       <c r="J19" t="n">
-        <v>0.134237816285639</v>
+        <v>2.023608857975855</v>
       </c>
       <c r="K19" t="n">
-        <v>0.490422600747282</v>
+        <v>1.109062144114942</v>
       </c>
       <c r="L19" t="n">
-        <v>1.402910473860537</v>
+        <v>0.8976508223193517</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3974161187852117</v>
+        <v>0.5998387751091586</v>
       </c>
       <c r="N19" t="n">
-        <v>1.013825686917712</v>
+        <v>1.031496684140696</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4143349457266761</v>
+        <v>0.6253751536029983</v>
       </c>
       <c r="P19" t="n">
-        <v>133.69108555632</v>
+        <v>132.0443774721036</v>
       </c>
       <c r="Q19" t="n">
-        <v>212.9180141727531</v>
+        <v>211.2713060885366</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9762861348087656</v>
+        <v>0.9446338066826658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7115367749375432</v>
+        <v>0.7089172643261209</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9235741738352404</v>
+        <v>0.6297329761192163</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9563913139181646</v>
+        <v>0.4215454630455772</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9331387689843929</v>
+        <v>0.4558917613587955</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1585747257260937</v>
+        <v>0.3702339896508923</v>
       </c>
       <c r="H20" t="n">
-        <v>1.928954914243667</v>
+        <v>1.946471593763985</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8487820536936385</v>
+        <v>0.2018577269045448</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1372268181778853</v>
+        <v>2.087269581599823</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4930044359357619</v>
+        <v>1.144563647711649</v>
       </c>
       <c r="L20" t="n">
-        <v>1.408235954943595</v>
+        <v>0.9101942858694795</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3982144217957126</v>
+        <v>0.6084685609387656</v>
       </c>
       <c r="N20" t="n">
-        <v>1.01388128694121</v>
+        <v>1.032409479015025</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4151672341490492</v>
+        <v>0.634372327281491</v>
       </c>
       <c r="P20" t="n">
-        <v>133.68305868216</v>
+        <v>131.9872401375309</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.909987298593</v>
+        <v>211.2141687539639</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9761976721905112</v>
+        <v>0.9432011887560948</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7108423871054157</v>
+        <v>0.7080184639606208</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9233996647011768</v>
+        <v>0.6174795376191774</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9555250587028304</v>
+        <v>0.4054948538089703</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9328225030623324</v>
+        <v>0.4405376479185701</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1591662756616935</v>
+        <v>0.3798139123224717</v>
       </c>
       <c r="H21" t="n">
-        <v>1.933598288874466</v>
+        <v>1.952481875946679</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8507201448943725</v>
+        <v>0.2085379092671493</v>
       </c>
       <c r="J21" t="n">
-        <v>0.139952730320875</v>
+        <v>2.145185884931289</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4953364376076237</v>
+        <v>1.176861927426012</v>
       </c>
       <c r="L21" t="n">
-        <v>1.412990977605926</v>
+        <v>0.921529370247741</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3989564834185472</v>
+        <v>0.6162904447762205</v>
       </c>
       <c r="N21" t="n">
-        <v>1.013933069937262</v>
+        <v>1.033248084630579</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4159408868714471</v>
+        <v>0.6425272049074381</v>
       </c>
       <c r="P21" t="n">
-        <v>133.6756117286164</v>
+        <v>131.9361477012413</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.9025403450495</v>
+        <v>211.1630763176743</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9761156656267701</v>
+        <v>0.9418884244143787</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7102153299570004</v>
+        <v>0.7071894988815133</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9232441114405682</v>
+        <v>0.6063447309920071</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9547361233260248</v>
+        <v>0.390912304045537</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9325370114366354</v>
+        <v>0.426587627113667</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1597146539310355</v>
+        <v>0.3885923735202512</v>
       </c>
       <c r="H22" t="n">
-        <v>1.937791422913252</v>
+        <v>1.958025169247704</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8524477129511907</v>
+        <v>0.2146082493469235</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1424353341604828</v>
+        <v>2.197804907860274</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4974415235558367</v>
+        <v>1.206206615787994</v>
       </c>
       <c r="L22" t="n">
-        <v>1.417241730692568</v>
+        <v>0.9317675640215743</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3996431582437456</v>
+        <v>0.6233717779305149</v>
       </c>
       <c r="N22" t="n">
-        <v>1.013981073779452</v>
+        <v>1.03401653205012</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4166567948655672</v>
+        <v>0.6499100050744913</v>
       </c>
       <c r="P22" t="n">
-        <v>133.6687329377069</v>
+        <v>131.8904487355165</v>
       </c>
       <c r="Q22" t="n">
-        <v>212.89566155414</v>
+        <v>211.1173773519496</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9760398389457663</v>
+        <v>0.940688203139497</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7096491742224895</v>
+        <v>0.7064272514583427</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9231049972868237</v>
+        <v>0.5962386627163521</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9540185863139599</v>
+        <v>0.3776793738783636</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9322791435757971</v>
+        <v>0.4139284292346028</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1602217072960576</v>
+        <v>0.3966182587118963</v>
       </c>
       <c r="H23" t="n">
-        <v>1.941577308916834</v>
+        <v>1.963122321276273</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8539927089694018</v>
+        <v>0.2201177542136671</v>
       </c>
       <c r="J23" t="n">
-        <v>0.144693263255291</v>
+        <v>2.24555402356226</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4993429243728334</v>
+        <v>1.232835982286375</v>
       </c>
       <c r="L23" t="n">
-        <v>1.421037671259634</v>
+        <v>0.9410159048594781</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4002770381823789</v>
+        <v>0.6297763561073854</v>
       </c>
       <c r="N23" t="n">
-        <v>1.014025460129307</v>
+        <v>1.03471910060127</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4173176603855004</v>
+        <v>0.6565872394036556</v>
       </c>
       <c r="P23" t="n">
-        <v>133.662393504607</v>
+        <v>131.8495620517051</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.8893221210401</v>
+        <v>211.0764906681381</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9759700669690139</v>
+        <v>0.9395927231685663</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7091381964719453</v>
+        <v>0.7057281454017911</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9229810148714315</v>
+        <v>0.5870751843467261</v>
       </c>
       <c r="E24" t="n">
-        <v>0.953366368951453</v>
+        <v>0.3656804347880893</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9320465926945435</v>
+        <v>0.4024497715442182</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1606882728258717</v>
+        <v>0.4039437383217309</v>
       </c>
       <c r="H24" t="n">
-        <v>1.944994219487558</v>
+        <v>1.967797246695521</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8553696525294456</v>
+        <v>0.2251133892417198</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1467456459675158</v>
+        <v>2.28885046083538</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5010576492484806</v>
+        <v>1.256982013138158</v>
       </c>
       <c r="L24" t="n">
-        <v>1.424437318694428</v>
+        <v>0.9493674992645211</v>
       </c>
       <c r="M24" t="n">
-        <v>0.400859417783681</v>
+        <v>0.6355656837194177</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014066302262041</v>
+        <v>1.03536035716962</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4179248330921219</v>
+        <v>0.6626230306776925</v>
       </c>
       <c r="P24" t="n">
-        <v>133.6565779689434</v>
+        <v>131.8129593445973</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.8835065853764</v>
+        <v>211.0398879610304</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9759060162857824</v>
+        <v>0.9385944725990626</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7086771690686058</v>
+        <v>0.7050884144137562</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9228702353402874</v>
+        <v>0.5787730160502464</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9527745639990098</v>
+        <v>0.3548096545589636</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9318368927957033</v>
+        <v>0.3920503768002549</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1611165800395667</v>
+        <v>0.4106190444765238</v>
       </c>
       <c r="H25" t="n">
-        <v>1.948077111856525</v>
+        <v>1.9720751307582</v>
       </c>
       <c r="I25" t="n">
-        <v>0.856599965404951</v>
+        <v>0.229639465593704</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1486079242864105</v>
+        <v>2.328076099932232</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5026038813290622</v>
+        <v>1.278857750972727</v>
       </c>
       <c r="L25" t="n">
-        <v>1.427473520202006</v>
+        <v>0.9569031705977781</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4013932984487492</v>
+        <v>0.6407956339399667</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014103795344908</v>
+        <v>1.035944698966402</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4184814421623874</v>
+        <v>0.6680756307066197</v>
       </c>
       <c r="P25" t="n">
-        <v>133.6512541528134</v>
+        <v>131.7801787868127</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.8781827692464</v>
+        <v>211.0071074032458</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9758473612454638</v>
+        <v>0.9376862832551269</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7082613260656963</v>
+        <v>0.7045041319288798</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9227712110221546</v>
+        <v>0.5712578746068716</v>
       </c>
       <c r="E26" t="n">
-        <v>0.952238023511227</v>
+        <v>0.3449701278544564</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9316478209469419</v>
+        <v>0.3826374094715559</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1615088065642589</v>
+        <v>0.4166921108012488</v>
       </c>
       <c r="H26" t="n">
-        <v>1.950857855931763</v>
+        <v>1.975982230424942</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8576997253725975</v>
+        <v>0.2337364801029254</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1502962976490906</v>
+        <v>2.36358060975212</v>
       </c>
       <c r="K26" t="n">
-        <v>0.503998011510844</v>
+        <v>1.298658480784192</v>
       </c>
       <c r="L26" t="n">
-        <v>1.430195702990084</v>
+        <v>0.9637025643971263</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4018815827632051</v>
+        <v>0.6455169330089249</v>
       </c>
       <c r="N26" t="n">
-        <v>1.014138130002655</v>
+        <v>1.036476321996999</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4189905137509976</v>
+        <v>0.6729979252513798</v>
       </c>
       <c r="P26" t="n">
-        <v>133.6463912159929</v>
+        <v>131.7508153465907</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.873319832426</v>
+        <v>210.9777439630238</v>
       </c>
     </row>
   </sheetData>
